--- a/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E808C839-0D41-45B0-976F-1FA5F1336E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80902E3B-62DB-4CBC-B038-C1980A052EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09B168B6-5E9E-49E1-852D-658D709E8A9A}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>Mã phiếu</t>
-  </si>
-  <si>
-    <t>Line / STT dòng</t>
-  </si>
-  <si>
-    <t>Line / Sản phẩm</t>
-  </si>
-  <si>
     <t>PXB771075-012023</t>
   </si>
   <si>
@@ -48,14 +39,71 @@
     <t>Ngày xác nhận nhập</t>
   </si>
   <si>
-    <t>Line / Số lượng nhập</t>
+    <r>
+      <t>Mã phiếu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / STT dòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Số lượng nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +121,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -454,30 +509,30 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -485,7 +540,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>45114</v>
@@ -494,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
@@ -502,7 +557,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>45114</v>
@@ -511,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
@@ -533,5 +588,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80902E3B-62DB-4CBC-B038-C1980A052EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871B63D-702C-43AD-A271-4642D6CEA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09B168B6-5E9E-49E1-852D-658D709E8A9A}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>PXB781075-012023</t>
   </si>
   <si>
-    <t>Ngày xác nhận nhập</t>
-  </si>
-  <si>
     <r>
       <t>Mã phiếu</t>
     </r>
@@ -55,7 +52,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / STT dòng </t>
+      <t xml:space="preserve">Chi tiết / STT dòng </t>
     </r>
     <r>
       <rPr>
@@ -70,7 +67,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Sản phẩm</t>
+      <t>Chi tiết / Sản phẩm</t>
     </r>
     <r>
       <rPr>
@@ -85,7 +82,22 @@
   </si>
   <si>
     <r>
-      <t>Line / Số lượng nhập</t>
+      <t>Chi tiết / Số lượng nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngày xác nhận nhập</t>
     </r>
     <r>
       <rPr>
@@ -509,33 +521,33 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871B63D-702C-43AD-A271-4642D6CEA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC9BB5B-FEDF-4450-98ED-0A8859F3BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09B168B6-5E9E-49E1-852D-658D709E8A9A}"/>
   </bookViews>
@@ -115,6 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,7 +206,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,13 +528,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
@@ -537,7 +544,7 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -554,7 +561,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>45114</v>
       </c>
       <c r="C2" s="4">
@@ -571,7 +578,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>45114</v>
       </c>
       <c r="C3" s="4">
@@ -586,14 +593,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>

--- a/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/update_sl_nhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80902E3B-62DB-4CBC-B038-C1980A052EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC9BB5B-FEDF-4450-98ED-0A8859F3BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09B168B6-5E9E-49E1-852D-658D709E8A9A}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>PXB781075-012023</t>
   </si>
   <si>
-    <t>Ngày xác nhận nhập</t>
-  </si>
-  <si>
     <r>
       <t>Mã phiếu</t>
     </r>
@@ -55,7 +52,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / STT dòng </t>
+      <t xml:space="preserve">Chi tiết / STT dòng </t>
     </r>
     <r>
       <rPr>
@@ -70,7 +67,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Sản phẩm</t>
+      <t>Chi tiết / Sản phẩm</t>
     </r>
     <r>
       <rPr>
@@ -85,7 +82,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Số lượng nhập</t>
+      <t>Chi tiết / Số lượng nhập</t>
     </r>
     <r>
       <rPr>
@@ -98,11 +95,29 @@
       <t xml:space="preserve"> (*)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Ngày xác nhận nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,7 +206,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,40 +528,40 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>45114</v>
       </c>
       <c r="C2" s="4">
@@ -559,7 +578,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>45114</v>
       </c>
       <c r="C3" s="4">
@@ -574,14 +593,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
